--- a/chapters/models/models.xlsx
+++ b/chapters/models/models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royfr474/github/generative-ai/chapters/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royfr474/github/genai/chapters/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D81FF-5305-D244-8D16-AE976E7A997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E6E858-8DED-B94E-AAB6-703D15528312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="1900" windowWidth="18000" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2920" windowWidth="25980" windowHeight="26320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="165">
   <si>
     <t>Model</t>
   </si>
@@ -621,6 +621,42 @@
   </si>
   <si>
     <t>05-04-2025</t>
+  </si>
+  <si>
+    <t>22-05-2025</t>
+  </si>
+  <si>
+    <t>Hybrid Reasoning</t>
+  </si>
+  <si>
+    <t>Claude 4 Opus</t>
+  </si>
+  <si>
+    <t>Claude 4 Sonnet</t>
+  </si>
+  <si>
+    <t>Grind</t>
+  </si>
+  <si>
+    <t>Aime_2024</t>
+  </si>
+  <si>
+    <t>GPQA</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>MATH_500</t>
+  </si>
+  <si>
+    <t>BFCL</t>
+  </si>
+  <si>
+    <t>WebDevArena</t>
+  </si>
+  <si>
+    <t>Aider_Polygot</t>
   </si>
 </sst>
 </file>
@@ -677,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,11 +727,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,11 +1034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1020,10 +1053,13 @@
     <col min="8" max="8" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="2"/>
+    <col min="11" max="17" width="8.83203125" style="3"/>
+    <col min="18" max="18" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1057,34 +1093,58 @@
       <c r="K1" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>0.11700000000000001</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
         <v>0.23400000000000001</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1170,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1142,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1231,8 +1291,29 @@
       <c r="J7" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>56.1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>31</v>
+      </c>
+      <c r="P7" s="3">
+        <v>27.1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>60.3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="S7" s="3">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>116</v>
       </c>
@@ -1257,8 +1338,23 @@
       <c r="J8" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="P8" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>138</v>
       </c>
@@ -1283,8 +1379,23 @@
       <c r="J9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>48.1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="O9" s="3">
+        <v>55</v>
+      </c>
+      <c r="R9" s="3">
+        <v>52.4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
@@ -1309,8 +1420,26 @@
       <c r="J10" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>49.6</v>
+      </c>
+      <c r="N10" s="3">
+        <v>65</v>
+      </c>
+      <c r="O10" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="P10" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="R10" s="3">
+        <v>32.4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>143</v>
       </c>
@@ -1335,8 +1464,20 @@
       <c r="J11" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="3">
+        <v>29.4</v>
+      </c>
+      <c r="N11" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="P11" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R11" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>117</v>
       </c>
@@ -1364,11 +1505,35 @@
       <c r="J12" s="3">
         <v>60</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>57.1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>79.2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="O12" s="3">
+        <v>48.9</v>
+      </c>
+      <c r="P12" s="3">
+        <v>67.87</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>61.7</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
@@ -1396,11 +1561,29 @@
       <c r="J13" s="3">
         <v>0.6</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="N13" s="3">
+        <v>60</v>
+      </c>
+      <c r="P13" s="3">
+        <v>52.2</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>90</v>
+      </c>
+      <c r="R13" s="3">
+        <v>60.4</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>134</v>
       </c>
@@ -1425,11 +1608,29 @@
       <c r="J14" s="3">
         <v>40</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>91.6</v>
+      </c>
+      <c r="N14" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="P14" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>135</v>
       </c>
@@ -1454,11 +1655,35 @@
       <c r="J15" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>50</v>
+      </c>
+      <c r="M15" s="3">
+        <v>87.3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="O15" s="3">
+        <v>61</v>
+      </c>
+      <c r="P15" s="3">
+        <v>65.12</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="R15" s="3">
+        <v>53.8</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>136</v>
       </c>
@@ -1483,11 +1708,32 @@
       <c r="J16" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3">
+        <v>50</v>
+      </c>
+      <c r="M16" s="3">
+        <v>93.4</v>
+      </c>
+      <c r="N16" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="O16" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="P16" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="R16" s="3">
+        <v>72</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>151</v>
       </c>
@@ -1503,8 +1749,11 @@
       <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>150</v>
       </c>
@@ -1535,8 +1784,23 @@
       <c r="J18" s="3">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>53.6</v>
+      </c>
+      <c r="N18" s="3">
+        <v>69.8</v>
+      </c>
+      <c r="P18" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="R18" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>149</v>
       </c>
@@ -1561,8 +1825,14 @@
       <c r="H19" s="3">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N19" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="S19" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -1587,8 +1857,20 @@
       <c r="H20" s="3">
         <v>128000</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>50.5</v>
+      </c>
+      <c r="P20" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1614,7 +1896,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>96</v>
       </c>
@@ -1640,7 +1922,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -1666,7 +1948,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -1692,7 +1974,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1718,7 +2000,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -1744,7 +2026,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -1769,8 +2051,26 @@
       <c r="H27" s="3">
         <v>128000</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="M27" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="S27" s="3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -1796,7 +2096,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -1822,7 +2122,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
@@ -1848,7 +2148,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
@@ -1870,8 +2170,11 @@
       <c r="H31" s="3">
         <v>128000</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>122</v>
       </c>
@@ -1890,11 +2193,23 @@
       <c r="H32" s="3">
         <v>1000000</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="R32" s="3">
+        <v>53.3</v>
+      </c>
+      <c r="S32" s="3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1920,7 +2235,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>110</v>
       </c>
@@ -1945,8 +2260,11 @@
       <c r="H34" s="3">
         <v>65000</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>24</v>
       </c>
@@ -1968,8 +2286,11 @@
       <c r="H35" s="3">
         <v>32000</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -1995,7 +2316,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -2021,7 +2342,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -2047,7 +2368,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -2073,7 +2394,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -2099,7 +2420,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -2125,7 +2446,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
@@ -2151,7 +2472,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
@@ -2176,8 +2497,11 @@
       <c r="H43" s="3">
         <v>32000</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
@@ -2209,7 +2533,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -2241,7 +2565,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
@@ -2266,8 +2590,26 @@
       <c r="H46" s="3">
         <v>128000</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I46" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N46" s="3">
+        <v>42.4</v>
+      </c>
+      <c r="O46" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P46" s="3">
+        <v>59.11</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>70</v>
       </c>
@@ -2293,7 +2635,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -2319,7 +2661,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>71</v>
       </c>
@@ -2345,7 +2687,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>146</v>
       </c>
@@ -2370,11 +2712,23 @@
       <c r="J50" s="3">
         <v>3.5</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>88</v>
+      </c>
+      <c r="N50" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="P50" s="3">
+        <v>51.1</v>
+      </c>
+      <c r="S50" s="3">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>124</v>
       </c>
@@ -2384,17 +2738,47 @@
       <c r="D51" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F51" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G51" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="3">
         <v>1000000</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="I51" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="J51" s="3">
+        <v>10</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="M51" s="3">
+        <v>92</v>
+      </c>
+      <c r="N51" s="3">
+        <v>84</v>
+      </c>
+      <c r="O51" s="3">
+        <v>63.8</v>
+      </c>
+      <c r="P51" s="3">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="R51" s="3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="S51" s="3">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>113</v>
       </c>
@@ -2419,8 +2803,29 @@
       <c r="J52" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>53.6</v>
+      </c>
+      <c r="N52" s="3">
+        <v>62.1</v>
+      </c>
+      <c r="O52" s="3">
+        <v>51.8</v>
+      </c>
+      <c r="P52" s="3">
+        <v>60.42</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>89.7</v>
+      </c>
+      <c r="R52" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="S52" s="3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>115</v>
       </c>
@@ -2446,7 +2851,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>43</v>
       </c>
@@ -2468,8 +2873,11 @@
       <c r="H54" s="3">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>39</v>
       </c>
@@ -2497,8 +2905,14 @@
       <c r="J55" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M55" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="S55" s="3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
@@ -2521,7 +2935,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
@@ -2550,7 +2964,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>40</v>
       </c>
@@ -2573,15 +2987,12 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="3">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>11</v>
@@ -2593,24 +3004,33 @@
         <v>32</v>
       </c>
       <c r="H59" s="3">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I59" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J59" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L59" s="3">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="N59" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="O59" s="3">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="3">
-        <v>2000</v>
+        <v>156</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>11</v>
@@ -2625,21 +3045,30 @@
         <v>200000</v>
       </c>
       <c r="I60" s="3">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3">
         <v>15</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L60" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="O60" s="3">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="3">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
@@ -2659,16 +3088,40 @@
       <c r="J61" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M61" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="N61" s="3">
+        <v>68</v>
+      </c>
+      <c r="O61" s="3">
+        <v>62.3</v>
+      </c>
+      <c r="P61" s="3">
+        <v>58.3</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>82.2</v>
+      </c>
+      <c r="R61" s="3">
+        <v>64.7</v>
+      </c>
+      <c r="S61" s="3">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B62" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
@@ -2682,19 +3135,13 @@
       <c r="H62" s="3">
         <v>200000</v>
       </c>
-      <c r="I62" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B63" s="3">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>55</v>
@@ -2711,13 +3158,37 @@
       <c r="H63" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="3">
+        <v>3</v>
+      </c>
+      <c r="J63" s="3">
+        <v>15</v>
+      </c>
+      <c r="M63" s="3">
+        <v>16</v>
+      </c>
+      <c r="N63" s="3">
+        <v>65</v>
+      </c>
+      <c r="O63" s="3">
+        <v>49</v>
+      </c>
+      <c r="P63" s="3">
+        <v>56.46</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>78</v>
+      </c>
+      <c r="S63" s="3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B64" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>55</v>
@@ -2734,16 +3205,40 @@
       <c r="H64" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I64" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J64" s="3">
+        <v>4</v>
+      </c>
+      <c r="M64" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="N64" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="O64" s="3">
+        <v>40.6</v>
+      </c>
+      <c r="P64" s="3">
+        <v>54.31</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="S64" s="3">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B65" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>11</v>
@@ -2757,13 +3252,22 @@
       <c r="H65" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I65" s="3">
+        <v>15</v>
+      </c>
+      <c r="J65" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>33</v>
+      </c>
+      <c r="B66" s="3">
+        <v>70</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>11</v>
@@ -2783,68 +3287,71 @@
       <c r="J66" s="3">
         <v>15</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B67" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="3">
-        <v>4.0999999999999996</v>
+        <v>11</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H67" s="3">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J67" s="3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B68" s="3">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="3">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H68" s="3">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100000</v>
+      </c>
+      <c r="I68" s="3">
+        <v>8</v>
+      </c>
+      <c r="J68" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>52</v>
@@ -2853,7 +3360,7 @@
         <v>7</v>
       </c>
       <c r="E69" s="3">
-        <v>20</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>13</v>
@@ -2865,76 +3372,73 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>13</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" s="3">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>34</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="3">
+        <v>20</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" s="3">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B72" s="3">
         <v>32</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="3">
+      <c r="D72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="3">
         <v>20</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H70" s="3">
-        <v>128000</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="3">
-        <v>72</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="3">
-        <v>47</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H71" s="3">
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="3">
-        <v>72</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="3">
-        <v>41</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
@@ -2943,24 +3447,33 @@
         <v>92</v>
       </c>
       <c r="H72" s="3">
-        <v>131000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>128000</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="R72" s="3">
+        <v>59.6</v>
+      </c>
+      <c r="S72" s="3">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" s="3">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="3">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>8</v>
@@ -2969,70 +3482,88 @@
         <v>92</v>
       </c>
       <c r="H73" s="3">
+        <v>128000</v>
+      </c>
+      <c r="L73" s="3">
+        <v>42.9</v>
+      </c>
+      <c r="N73" s="3">
+        <v>46</v>
+      </c>
+      <c r="O73" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="P73" s="3">
+        <v>62.79</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>82.2</v>
+      </c>
+      <c r="R73" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S73" s="3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="3">
+        <v>72</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3">
+        <v>41</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="3">
+        <v>131000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="3">
+        <v>110</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="3">
+        <v>65</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B76" s="3">
         <v>671</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="3">
-        <v>404</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="3">
-        <v>128000</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="3">
-        <v>70</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="3">
-        <v>43</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="3">
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" s="3">
-        <v>32</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>80</v>
@@ -3041,7 +3572,7 @@
         <v>7</v>
       </c>
       <c r="E76" s="3">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
@@ -3052,13 +3583,46 @@
       <c r="H76" s="3">
         <v>128000</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I76" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2.19</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L76" s="3">
+        <v>53</v>
+      </c>
+      <c r="M76" s="3">
+        <v>80</v>
+      </c>
+      <c r="N76" s="3">
+        <v>71</v>
+      </c>
+      <c r="O76" s="3">
+        <v>50</v>
+      </c>
+      <c r="P76" s="3">
+        <v>97</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>57</v>
+      </c>
+      <c r="R76" s="3">
+        <v>56.9</v>
+      </c>
+      <c r="S76" s="3">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B77" s="3">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>80</v>
@@ -3067,7 +3631,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="3">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>8</v>
@@ -3079,12 +3643,12 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B78" s="3">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>80</v>
@@ -3093,7 +3657,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="3">
-        <v>4.9000000000000004</v>
+        <v>20</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>8</v>
@@ -3105,12 +3669,12 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>80</v>
@@ -3119,7 +3683,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="3">
-        <v>4.7</v>
+        <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>8</v>
@@ -3131,12 +3695,12 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B80" s="3">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>80</v>
@@ -3145,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="3">
-        <v>1.1000000000000001</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>8</v>
@@ -3157,60 +3721,78 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="B81" s="3">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4.7</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H81" s="3">
         <v>128000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H82" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>102</v>
       </c>
       <c r="H83" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>11</v>
@@ -3219,6 +3801,49 @@
         <v>148</v>
       </c>
       <c r="G84" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H84" s="3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H85" s="3">
+        <v>300000</v>
+      </c>
+      <c r="N85" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="P85" s="3">
+        <v>61.38</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>102</v>
       </c>
     </row>

--- a/chapters/models/models.xlsx
+++ b/chapters/models/models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royfr474/github/genai/chapters/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E6E858-8DED-B94E-AAB6-703D15528312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF51DC38-043F-1E4E-90E7-5460D8129012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2920" windowWidth="25980" windowHeight="26320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="880" windowWidth="35900" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1037,8 +1037,8 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1262,6 +1262,12 @@
       <c r="J6" s="3">
         <v>60</v>
       </c>
+      <c r="N6" s="3">
+        <v>35</v>
+      </c>
+      <c r="P6" s="3">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -2124,28 +2130,37 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3">
-        <v>314</v>
+        <v>2700</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3">
-        <v>600</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="3">
-        <v>8192</v>
+        <v>1000000</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M30" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="N30" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="R30" s="3">
+        <v>53.3</v>
+      </c>
+      <c r="S30" s="3">
+        <v>1142</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2176,37 +2191,28 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3">
-        <v>2700</v>
+        <v>314</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M32" s="3">
-        <v>93.3</v>
-      </c>
-      <c r="N32" s="3">
-        <v>84.6</v>
-      </c>
-      <c r="R32" s="3">
-        <v>53.3</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1142</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
